--- a/glaciar_1933/punto.xlsx
+++ b/glaciar_1933/punto.xlsx
@@ -371,7 +371,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>14000</v>
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
